--- a/data/financial_statements/socf/OTIS.xlsx
+++ b/data/financial_statements/socf/OTIS.xlsx
@@ -14,9 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -116,9 +164,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -481,60 +523,60 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B2">
         <v>350000000</v>
@@ -586,8 +628,8 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B3">
         <v>48000000</v>
@@ -639,8 +681,8 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B4">
         <v>13000000</v>
@@ -689,8 +731,8 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B5">
         <v>-67000000</v>
@@ -739,8 +781,8 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B6">
         <v>-41000000</v>
@@ -789,8 +831,8 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B7">
         <v>2000000</v>
@@ -833,23 +875,23 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>-26000000</v>
+        <v>2000000</v>
       </c>
       <c r="C8">
-        <v>38000000</v>
+        <v>171000000</v>
       </c>
       <c r="D8">
-        <v>-178000000</v>
+        <v>-36000000</v>
       </c>
       <c r="E8">
-        <v>101000000</v>
+        <v>-100000000</v>
       </c>
       <c r="F8">
-        <v>-6000000</v>
+        <v>106000000</v>
       </c>
       <c r="G8">
         <v>137000000</v>
@@ -883,23 +925,23 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B9">
         <v>-40000000</v>
       </c>
       <c r="C9">
-        <v>-179000000</v>
+        <v>-190000000</v>
       </c>
       <c r="D9">
-        <v>352000000</v>
+        <v>369000000</v>
       </c>
       <c r="E9">
-        <v>-33000000</v>
+        <v>-53000000</v>
       </c>
       <c r="F9">
-        <v>-140000000</v>
+        <v>-173000000</v>
       </c>
       <c r="G9">
         <v>-117000000</v>
@@ -933,8 +975,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L10">
         <v>26000000</v>
@@ -947,8 +989,8 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B11">
         <v>239000000</v>
@@ -963,7 +1005,7 @@
         <v>277000000</v>
       </c>
       <c r="F11">
-        <v>355000000</v>
+        <v>357000000</v>
       </c>
       <c r="G11">
         <v>533000000</v>
@@ -1000,8 +1042,8 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B12">
         <v>-24000000</v>
@@ -1053,11 +1095,11 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>51000000</v>
+        <v>-10000000</v>
       </c>
       <c r="C13">
         <v>-20000000</v>
@@ -1106,8 +1148,8 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1144,23 +1186,23 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>45000000</v>
+        <v>-22000000</v>
       </c>
       <c r="C15">
-        <v>54000000</v>
+        <v>-1769000000</v>
       </c>
       <c r="D15">
-        <v>28000000</v>
+        <v>-19000000</v>
       </c>
       <c r="E15">
-        <v>42000000</v>
+        <v>16000000</v>
       </c>
       <c r="F15">
-        <v>37000000</v>
+        <v>-38000000</v>
       </c>
       <c r="G15">
         <v>-8000000</v>
@@ -1197,8 +1239,8 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B16">
         <v>72000000</v>
@@ -1250,8 +1292,8 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B17">
         <v>23000000</v>
@@ -1263,10 +1305,10 @@
         <v>-474000000</v>
       </c>
       <c r="E17">
-        <v>1821000000</v>
+        <v>1807000000</v>
       </c>
       <c r="F17">
-        <v>-300000000</v>
+        <v>-311000000</v>
       </c>
       <c r="G17">
         <v>-3000000</v>
@@ -1303,8 +1345,8 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B18">
         <v>-300000000</v>
@@ -1329,23 +1371,23 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B19">
-        <v>-187000000</v>
+        <v>-121000000</v>
       </c>
       <c r="C19">
-        <v>-130000000</v>
+        <v>-122000000</v>
       </c>
       <c r="D19">
-        <v>-135000000</v>
+        <v>-102000000</v>
       </c>
       <c r="E19">
-        <v>-127000000</v>
+        <v>-102000000</v>
       </c>
       <c r="F19">
-        <v>-177000000</v>
+        <v>-102000000</v>
       </c>
       <c r="G19">
         <v>-125000000</v>
@@ -1382,23 +1424,23 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B20">
-        <v>-1000000</v>
+        <v>-54000000</v>
       </c>
       <c r="C20">
-        <v>-13000000</v>
+        <v>-1808000000</v>
       </c>
       <c r="D20">
-        <v>-14000000</v>
+        <v>-34000000</v>
       </c>
       <c r="E20">
-        <v>-15000000</v>
+        <v>-9000000</v>
       </c>
       <c r="F20">
-        <v>-9000000</v>
+        <v>-56000000</v>
       </c>
       <c r="G20">
         <v>-8000000</v>
@@ -1435,8 +1477,8 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B21">
         <v>-465000000</v>
@@ -1451,7 +1493,7 @@
         <v>1679000000</v>
       </c>
       <c r="F21">
-        <v>-705000000</v>
+        <v>-707000000</v>
       </c>
       <c r="G21">
         <v>-342000000</v>
@@ -1488,8 +1530,8 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B22">
         <v>-69000000</v>
@@ -1538,8 +1580,8 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B23">
         <v>-223000000</v>
@@ -1591,8 +1633,8 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1644,8 +1686,8 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B25">
         <v>-223000000</v>
@@ -1697,8 +1739,8 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B26">
         <v>13000000</v>
@@ -1747,8 +1789,8 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B27">
         <v>-187000000</v>
@@ -1800,8 +1842,8 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B28">
         <v>0.2068</v>
@@ -1850,8 +1892,8 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B29">
         <v>-172000000</v>
@@ -1903,8 +1945,8 @@
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1947,8 +1989,8 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B31">
         <v>-300000000</v>
@@ -1979,8 +2021,8 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B32">
         <v>-300000000</v>
